--- a/02.COMP 512 - Information System I/08.COMP_512_Assignment_8_w2007.xlsx
+++ b/02.COMP 512 - Information System I/08.COMP_512_Assignment_8_w2007.xlsx
@@ -417,39 +417,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,42 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,13 +806,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="C2" s="2"/>
@@ -821,216 +821,216 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" thickTop="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27">
+      <c r="A5" s="4"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="27">
+      <c r="A6" s="4"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" thickTop="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="27">
+      <c r="A8" s="4"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="28">
+      <c r="A9" s="4"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
